--- a/45. Cash_Flow_Analysis_NPV_Gopher_Drugs.xlsx
+++ b/45. Cash_Flow_Analysis_NPV_Gopher_Drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE044A4C-A56A-4E02-AA09-F3E6B8D414BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C9C1BA-24AE-41BE-98B3-D2B0DFDB7B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A45014E-9848-408A-A63D-D9854DAFB85C}"/>
   </bookViews>
@@ -37,16 +37,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Gopher's Drug</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Year 1 Margin:</t>
+  </si>
+  <si>
+    <t>Increase thru year:</t>
+  </si>
+  <si>
+    <t>Rate of increase:</t>
+  </si>
+  <si>
+    <t>Rate of decrease:</t>
+  </si>
+  <si>
+    <t>Discount Rate:</t>
+  </si>
+  <si>
+    <t>Lifetime :</t>
+  </si>
+  <si>
+    <t>Development Cost:</t>
+  </si>
+  <si>
+    <t>End of year</t>
+  </si>
+  <si>
+    <t>Cash Flows</t>
+  </si>
+  <si>
+    <t>Gross Margin ($M)</t>
+  </si>
+  <si>
+    <t>Q1. Is the drug worth pursuing?</t>
+  </si>
+  <si>
+    <t>NPV   =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Cost:        = </t>
+  </si>
+  <si>
+    <t>Net Present Value:        =</t>
+  </si>
+  <si>
+    <t>Since, the net present value is positive, therefore the drug is actually worth pursuing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +116,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,18 +170,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,21 +733,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55793E69-A5FC-4C88-9781-157D8400B8AB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7">
+        <f>NPV(B9, F4:F23)</f>
+        <v>12.600290735832388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF(E5&lt;=$B$6, F4*(1+$B$7), F4*(1-$B$8))</f>
+        <v>1.32</v>
+      </c>
+      <c r="G5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F5)</f>
+        <v>=IF(E5&lt;=$B$6, F4*(1+$B$7), F4*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F23" si="0">IF(E6&lt;=$B$6, F5*(1+$B$7), F5*(1-$B$8))</f>
+        <v>1.4520000000000002</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G23" ca="1" si="1">_xlfn.FORMULATEXT(F6)</f>
+        <v>=IF(E6&lt;=$B$6, F5*(1+$B$7), F5*(1-$B$8))</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10">
+        <f>J3-J4</f>
+        <v>3.3002907358323874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5972000000000004</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E7&lt;=$B$6, F6*(1+$B$7), F6*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7569200000000005</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E8&lt;=$B$6, F7*(1+$B$7), F7*(1-$B$8))</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9326120000000007</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E9&lt;=$B$6, F8*(1+$B$7), F8*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="6">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1258732000000009</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E10&lt;=$B$6, F9*(1+$B$7), F9*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3384605200000013</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E11&lt;=$B$6, F10*(1+$B$7), F10*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>2.221537494000001</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E12&lt;=$B$6, F11*(1+$B$7), F11*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1104606193000008</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E13&lt;=$B$6, F12*(1+$B$7), F12*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="6">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0049375883350007</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E14&lt;=$B$6, F13*(1+$B$7), F13*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9046907089182505</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E15&lt;=$B$6, F14*(1+$B$7), F14*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="6">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>1.809456173472338</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E16&lt;=$B$6, F15*(1+$B$7), F15*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7189833647987209</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E17&lt;=$B$6, F16*(1+$B$7), F16*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="6">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6330341965587849</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E18&lt;=$B$6, F17*(1+$B$7), F17*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="6">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5513824867308457</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E19&lt;=$B$6, F18*(1+$B$7), F18*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="6">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4738133623943033</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E20&lt;=$B$6, F19*(1+$B$7), F19*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="6">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4001226942745881</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E21&lt;=$B$6, F20*(1+$B$7), F20*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="6">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3301165595608586</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E22&lt;=$B$6, F21*(1+$B$7), F21*(1-$B$8))</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2636107315828156</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=IF(E23&lt;=$B$6, F22*(1+$B$7), F22*(1-$B$8))</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
